--- a/tests/data/scb_swe_male_non_manual_pvt_wages_data.xlsx
+++ b/tests/data/scb_swe_male_non_manual_pvt_wages_data.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="11740" tabRatio="989" activeTab="1"/>
+    <workbookView windowWidth="20460" windowHeight="11740" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="gaps" sheetId="2" r:id="rId2"/>
+    <sheet name="source" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>Year</t>
   </si>
@@ -39,10 +39,73 @@
     <t>Wage3</t>
   </si>
   <si>
+    <t>HC4</t>
+  </si>
+  <si>
+    <t>Wage4</t>
+  </si>
+  <si>
     <t>Cost</t>
   </si>
   <si>
+    <t>Gap between
+Wage1 &amp;
+Wage2</t>
+  </si>
+  <si>
+    <t>Gap between
+Wage2 &amp;
+Wage3</t>
+  </si>
+  <si>
+    <t>Gap between
+Wage3 &amp;
+Wage4</t>
+  </si>
+  <si>
+    <t>Min gap</t>
+  </si>
+  <si>
     <t>https://www.statistikdatabasen.scb.se/pxweb/en/ssd/START__AM__AM0103__AM0103F/SLP1t12/table/tableViewLayout1/</t>
+  </si>
+  <si>
+    <t>Average monthly pay, non-manual workers private sector (SLP) by region, occuptional (SSYK 2012), sex, observations and year</t>
+  </si>
+  <si>
+    <t>observations</t>
+  </si>
+  <si>
+    <t>Employees, non-manual workers private sector (SLP)</t>
+  </si>
+  <si>
+    <t>Average monthly pay (total pay), non-manual workers private sector (SLP), SEK</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>SE Sweden</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>occupational (SSYK 2012)</t>
+  </si>
+  <si>
+    <t>112 Managing directors and chief executives</t>
+  </si>
+  <si>
+    <t>133 Research and development managers</t>
+  </si>
+  <si>
+    <t>134 Architectural and engineering managers</t>
+  </si>
+  <si>
+    <t>214 Engineering professionals</t>
   </si>
 </sst>
 </file>
@@ -50,18 +113,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -77,9 +147,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,8 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +171,73 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,46 +252,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,29 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,27 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,181 +303,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +506,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -451,20 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +571,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -494,173 +588,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -977,39 +1072,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.3625"/>
-    <col min="2" max="2" width="6.93125"/>
-    <col min="3" max="3" width="7.26875"/>
-    <col min="4" max="4" width="5.8875"/>
-    <col min="5" max="5" width="7.26875"/>
-    <col min="6" max="6" width="6.93125"/>
-    <col min="7" max="7" width="7.26875"/>
-    <col min="8" max="8" width="12.1375"/>
-    <col min="9" max="1025" width="11.51875"/>
+    <col min="2" max="2" width="10.3625" customWidth="1"/>
+    <col min="3" max="4" width="10.0875" customWidth="1"/>
+    <col min="5" max="5" width="11.26875" customWidth="1"/>
+    <col min="6" max="6" width="10.0875" customWidth="1"/>
+    <col min="7" max="7" width="10.81875" customWidth="1"/>
+    <col min="8" max="8" width="10.725" customWidth="1"/>
+    <col min="9" max="9" width="11.81875" customWidth="1"/>
+    <col min="10" max="10" width="12.0875"/>
+    <col min="11" max="1027" width="11.54375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1021,16 +1117,22 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2014</v>
       </c>
       <c r="B2">
-        <v>18500</v>
+        <v>64300</v>
       </c>
       <c r="C2">
-        <v>74800</v>
+        <v>43300</v>
       </c>
       <c r="D2">
         <v>4700</v>
@@ -1039,24 +1141,31 @@
         <v>57700</v>
       </c>
       <c r="F2">
-        <v>64300</v>
+        <v>3600</v>
       </c>
       <c r="G2">
-        <v>43300</v>
+        <v>66700</v>
       </c>
       <c r="H2">
-        <v>4439180000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>18500</v>
+      </c>
+      <c r="I2">
+        <v>74800</v>
+      </c>
+      <c r="J2">
+        <f>B2*C2+D2*E2+F2*G2+H2*I2</f>
+        <v>4679300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3">
-        <v>19900</v>
+        <v>65600</v>
       </c>
       <c r="C3">
-        <v>76700</v>
+        <v>43700</v>
       </c>
       <c r="D3">
         <v>5400</v>
@@ -1065,24 +1174,31 @@
         <v>58100</v>
       </c>
       <c r="F3">
-        <v>65600</v>
+        <v>4000</v>
       </c>
       <c r="G3">
-        <v>43700</v>
+        <v>68100</v>
       </c>
       <c r="H3">
-        <v>4706790000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>19900</v>
+      </c>
+      <c r="I3">
+        <v>76700</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="0">B3*C3+D3*E3+F3*G3+H3*I3</f>
+        <v>4979190000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>23500</v>
+        <v>66300</v>
       </c>
       <c r="C4">
-        <v>74100</v>
+        <v>44200</v>
       </c>
       <c r="D4">
         <v>5200</v>
@@ -1091,24 +1207,31 @@
         <v>60000</v>
       </c>
       <c r="F4">
-        <v>66300</v>
+        <v>4600</v>
       </c>
       <c r="G4">
-        <v>44200</v>
+        <v>69000</v>
       </c>
       <c r="H4">
-        <v>4983810000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>23500</v>
+      </c>
+      <c r="I4">
+        <v>74100</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>5301210000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2017</v>
       </c>
       <c r="B5">
-        <v>21300</v>
+        <v>72200</v>
       </c>
       <c r="C5">
-        <v>77000</v>
+        <v>45300</v>
       </c>
       <c r="D5">
         <v>6200</v>
@@ -1117,24 +1240,31 @@
         <v>59100</v>
       </c>
       <c r="F5">
-        <v>72200</v>
+        <v>4600</v>
       </c>
       <c r="G5">
-        <v>45300</v>
+        <v>66800</v>
       </c>
       <c r="H5">
-        <v>5277180000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21300</v>
+      </c>
+      <c r="I5">
+        <v>77000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5584460000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2018</v>
       </c>
       <c r="B6">
-        <v>23400</v>
+        <v>71600</v>
       </c>
       <c r="C6">
-        <v>77900</v>
+        <v>46500</v>
       </c>
       <c r="D6">
         <v>5100</v>
@@ -1143,24 +1273,31 @@
         <v>64700</v>
       </c>
       <c r="F6">
-        <v>71600</v>
+        <v>4400</v>
       </c>
       <c r="G6">
-        <v>46500</v>
+        <v>70000</v>
       </c>
       <c r="H6">
-        <v>5482230000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23400</v>
+      </c>
+      <c r="I6">
+        <v>77900</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5790230000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2019</v>
       </c>
       <c r="B7">
-        <v>21000</v>
+        <v>75200</v>
       </c>
       <c r="C7">
-        <v>78200</v>
+        <v>47600</v>
       </c>
       <c r="D7">
         <v>6000</v>
@@ -1169,24 +1306,31 @@
         <v>62800</v>
       </c>
       <c r="F7">
-        <v>75200</v>
+        <v>5100</v>
       </c>
       <c r="G7">
-        <v>47600</v>
+        <v>66900</v>
       </c>
       <c r="H7">
-        <v>5598520000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21000</v>
+      </c>
+      <c r="I7">
+        <v>78200</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>5939710000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2020</v>
       </c>
       <c r="B8">
-        <v>22600</v>
+        <v>72000</v>
       </c>
       <c r="C8">
-        <v>76700</v>
+        <v>48500</v>
       </c>
       <c r="D8">
         <v>5900</v>
@@ -1195,24 +1339,31 @@
         <v>60600</v>
       </c>
       <c r="F8">
-        <v>72000</v>
+        <v>4900</v>
       </c>
       <c r="G8">
-        <v>48500</v>
+        <v>70000</v>
       </c>
       <c r="H8">
-        <v>5582960000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22600</v>
+      </c>
+      <c r="I8">
+        <v>76700</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>5925960000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>2021</v>
       </c>
       <c r="B9">
-        <v>19000</v>
+        <v>73400</v>
       </c>
       <c r="C9">
-        <v>87900</v>
+        <v>49800</v>
       </c>
       <c r="D9">
         <v>5800</v>
@@ -1221,13 +1372,20 @@
         <v>65700</v>
       </c>
       <c r="F9">
-        <v>73400</v>
+        <v>4400</v>
       </c>
       <c r="G9">
-        <v>49800</v>
+        <v>72000</v>
       </c>
       <c r="H9">
-        <v>5706480000</v>
+        <v>19000</v>
+      </c>
+      <c r="I9">
+        <v>87900</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>6023280000</v>
       </c>
     </row>
   </sheetData>
@@ -1243,21 +1401,278 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="4" width="11.81875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2">
+        <f>(data!E2-data!C2)/data!C2</f>
+        <v>0.33256351039261</v>
+      </c>
+      <c r="C2">
+        <f>(data!G2-data!E2)/data!E2</f>
+        <v>0.155979202772964</v>
+      </c>
+      <c r="D2">
+        <f>(data!I2-data!G2)/data!G2</f>
+        <v>0.12143928035982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <f>(data!E3-data!C3)/data!C3</f>
+        <v>0.329519450800915</v>
+      </c>
+      <c r="C3">
+        <f>(data!G3-data!E3)/data!E3</f>
+        <v>0.172117039586919</v>
+      </c>
+      <c r="D3">
+        <f>(data!I3-data!G3)/data!G3</f>
+        <v>0.126284875183554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4">
+        <f>(data!E4-data!C4)/data!C4</f>
+        <v>0.357466063348416</v>
+      </c>
+      <c r="C4">
+        <f>(data!G4-data!E4)/data!E4</f>
+        <v>0.15</v>
+      </c>
+      <c r="D4">
+        <f>(data!I4-data!G4)/data!G4</f>
+        <v>0.0739130434782609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <f>(data!E5-data!C5)/data!C5</f>
+        <v>0.304635761589404</v>
+      </c>
+      <c r="C5">
+        <f>(data!G5-data!E5)/data!E5</f>
+        <v>0.130287648054146</v>
+      </c>
+      <c r="D5">
+        <f>(data!I5-data!G5)/data!G5</f>
+        <v>0.152694610778443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6">
+        <f>(data!E6-data!C6)/data!C6</f>
+        <v>0.391397849462366</v>
+      </c>
+      <c r="C6">
+        <f>(data!G6-data!E6)/data!E6</f>
+        <v>0.0819165378670788</v>
+      </c>
+      <c r="D6">
+        <f>(data!I6-data!G6)/data!G6</f>
+        <v>0.112857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7">
+        <f>(data!E7-data!C7)/data!C7</f>
+        <v>0.319327731092437</v>
+      </c>
+      <c r="C7">
+        <f>(data!G7-data!E7)/data!E7</f>
+        <v>0.0652866242038217</v>
+      </c>
+      <c r="D7">
+        <f>(data!I7-data!G7)/data!G7</f>
+        <v>0.168908819133034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8">
+        <f>(data!E8-data!C8)/data!C8</f>
+        <v>0.249484536082474</v>
+      </c>
+      <c r="C8">
+        <f>(data!G8-data!E8)/data!E8</f>
+        <v>0.155115511551155</v>
+      </c>
+      <c r="D8">
+        <f>(data!I8-data!G8)/data!G8</f>
+        <v>0.0957142857142857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9">
+        <f>(data!E9-data!C9)/data!C9</f>
+        <v>0.319277108433735</v>
+      </c>
+      <c r="C9">
+        <f>(data!G9-data!E9)/data!E9</f>
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D9">
+        <f>(data!I9-data!G9)/data!G9</f>
+        <v>0.220833333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>MIN(B2:B9)</f>
+        <v>0.249484536082474</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="0">MIN(C2:C9)</f>
+        <v>0.0652866242038217</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.0739130434782609</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>